--- a/8_Быстрая и внешняя сортировка /compare.xlsx
+++ b/8_Быстрая и внешняя сортировка /compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitazaytsev/git/OTUS_Algorithm/8_Быстрая и внешняя сортировка /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9B0197-9456-6A42-8826-5889737D56F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DA584C-4DAB-AE42-8253-E94EF22C0F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{D2E531A8-B0E2-AF47-802D-7975FB8F1F2C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
   <si>
     <t>cmp</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>Merge</t>
+  </si>
+  <si>
+    <t>ES1</t>
+  </si>
+  <si>
+    <t>ES2</t>
+  </si>
+  <si>
+    <t>ES3</t>
   </si>
 </sst>
 </file>
@@ -260,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -279,6 +288,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -288,17 +302,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -616,13 +619,13 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="9">
@@ -652,7 +655,7 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1230,22 +1233,22 @@
       <c r="J13" s="6">
         <v>96</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="18">
         <v>5917392</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="19">
         <v>17455173</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="20">
         <v>3819</v>
       </c>
-      <c r="N13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="23" t="s">
+      <c r="N13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1300,7 +1303,9 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="B15" s="10"/>
       <c r="C15" s="1"/>
       <c r="D15" s="7"/>
@@ -1310,15 +1315,17 @@
       <c r="H15" s="10"/>
       <c r="I15" s="1"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="28"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="22"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="B16" s="10"/>
       <c r="C16" s="1"/>
       <c r="D16" s="7"/>
@@ -1331,12 +1338,14 @@
       <c r="K16" s="5"/>
       <c r="L16" s="1"/>
       <c r="M16" s="13"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="22"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="B17" s="10"/>
       <c r="C17" s="1"/>
       <c r="D17" s="7"/>
@@ -1346,12 +1355,12 @@
       <c r="H17" s="10"/>
       <c r="I17" s="1"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="28"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
@@ -1367,45 +1376,45 @@
       <c r="K18" s="5"/>
       <c r="L18" s="1"/>
       <c r="M18" s="13"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="22"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
